--- a/assessment/antwoordblad-assessment-theorie-bbd919a9656aae8e9bac5c8b9f15f84d (1).xlsx
+++ b/assessment/antwoordblad-assessment-theorie-bbd919a9656aae8e9bac5c8b9f15f84d (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\educom-data-science\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\educom-data-science\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CADD4D30-25D8-4EE8-B69E-C76E65D1D8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1972CF38-63B4-4EF9-956F-E9209737B4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antwoordblad Assessment Theorie" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="6">
   <si>
     <t>Vraag</t>
   </si>
@@ -30,12 +30,21 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>het gaat mis in de nummerihn op de site</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -53,6 +62,11 @@
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="4">
@@ -75,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -197,13 +211,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -239,6 +264,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1397,24 +1437,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="B41" sqref="B41:F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="1" customWidth="1"/>
-    <col min="2" max="7" width="10.6640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.33203125" style="1"/>
+    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
+    <col min="2" max="7" width="10.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -1425,7 +1465,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1">
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1461,11 +1501,15 @@
       <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>2</v>
+      </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1">
+    <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1477,8 +1521,11 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1491,13 +1538,13 @@
       <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="13" t="s">
+        <v>2</v>
+      </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1">
+    <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1509,8 +1556,11 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1522,8 +1572,11 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1535,8 +1588,11 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1548,8 +1604,11 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1561,8 +1620,11 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1574,8 +1636,11 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1587,12 +1652,17 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="C13" s="9" t="s">
         <v>2</v>
       </c>
@@ -1602,10 +1672,12 @@
       <c r="E13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="13" t="s">
+        <v>2</v>
+      </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="19.95" customHeight="1">
+    <row r="14" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1617,21 +1689,22 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="19.95" customHeight="1">
+    <row r="16" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -1643,14 +1716,19 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
-        <v>2</v>
+      <c r="B17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>2</v>
@@ -1659,11 +1737,13 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="19.95" customHeight="1">
+    <row r="18" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="C18" s="9" t="s">
         <v>2</v>
       </c>
@@ -1674,16 +1754,14 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="19.95" customHeight="1">
+    <row r="19" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>2</v>
-      </c>
+      <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
         <v>2</v>
       </c>
@@ -1694,8 +1772,11 @@
         <v>2</v>
       </c>
       <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -1711,12 +1792,17 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="C21" s="9" t="s">
         <v>2</v>
       </c>
@@ -1726,8 +1812,11 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1739,36 +1828,44 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="4">
         <v>21</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>2</v>
-      </c>
+      <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="19.95" customHeight="1">
+    <row r="25" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
@@ -1778,8 +1875,11 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -1793,12 +1893,17 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="C27" s="9" t="s">
         <v>2</v>
       </c>
@@ -1808,8 +1913,11 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -1821,8 +1929,11 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -1834,8 +1945,11 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -1847,8 +1961,11 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -1864,21 +1981,27 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A32" s="4">
         <v>30</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9" t="s">
-        <v>2</v>
-      </c>
+      <c r="C32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -1898,21 +2021,27 @@
         <v>2</v>
       </c>
       <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H33" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A34" s="4">
         <v>32</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9" t="s">
-        <v>2</v>
-      </c>
+      <c r="D34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H34" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -1924,8 +2053,11 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H35" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -1943,8 +2075,11 @@
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H36" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -1952,12 +2087,14 @@
       <c r="C37" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="9"/>
+      <c r="D37" s="13" t="s">
+        <v>2</v>
+      </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" ht="19.95" customHeight="1">
+    <row r="38" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -1969,27 +2106,30 @@
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H38" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>2</v>
+      <c r="B39" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="D39" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="19.95" customHeight="1">
+    <row r="40" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="B40" s="8"/>
       <c r="C40" s="9" t="s">
         <v>2</v>
       </c>
@@ -1999,8 +2139,11 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="1:7" ht="19.95" customHeight="1">
+      <c r="H40" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -2011,7 +2154,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="19.95" customHeight="1">
+    <row r="42" spans="1:8" ht="19.899999999999999" customHeight="1">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -2023,13 +2166,16 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
+      <c r="H42" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
